--- a/2_metal_balance/docs/2-0金属平衡分析（含空表）.xlsx
+++ b/2_metal_balance/docs/2-0金属平衡分析（含空表）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8370" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="17910" windowHeight="8370" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="物料数据项" sheetId="1" r:id="rId1"/>
@@ -735,21 +735,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0.000000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="186" formatCode="0.0_ "/>
+    <numFmt numFmtId="187" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
-    <numFmt numFmtId="187" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -895,24 +895,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,33 +909,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,6 +932,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -978,31 +978,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,14 +1015,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,7 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1097,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,133 +1253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,8 +1430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,26 +1445,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,31 +1502,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,169 +1530,169 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,58 +1719,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,19 +1779,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,46 +1803,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,13 +1851,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,7 +1866,7 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,28 +1875,28 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1905,649 +1905,649 @@
     <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="17" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,16 +2557,16 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="23" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,28 +2575,28 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2620,11 +2620,11 @@
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="1"/>
-    <cellStyle name="常规 19" xfId="2"/>
+    <cellStyle name="常规 8 11" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="常规 21" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 8 11" xfId="5"/>
+    <cellStyle name="常规 19" xfId="4"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -12466,7 +12466,7 @@
   <sheetPr/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -14364,8 +14364,8 @@
   <sheetPr/>
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -16752,8 +16752,8 @@
   <sheetPr/>
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50:X50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A42" sqref="$A42:$XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -19016,7 +19016,7 @@
   <sheetPr/>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -20537,7 +20537,7 @@
   <sheetPr/>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/2_metal_balance/docs/2-0金属平衡分析（含空表）.xlsx
+++ b/2_metal_balance/docs/2-0金属平衡分析（含空表）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="27720" windowHeight="13365" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="物料数据项" sheetId="1" r:id="rId1"/>
@@ -734,22 +734,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.000000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="185" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="186" formatCode="0.0_ "/>
-    <numFmt numFmtId="187" formatCode="0.0000_ "/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -895,31 +895,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,7 +916,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -948,6 +931,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -956,14 +954,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,31 +992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,9 +1007,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,28 +1048,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1079,7 +1079,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1115,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,151 +1247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,8 +1430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,42 +1460,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1516,11 +1484,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,7 +1533,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1542,157 +1542,157 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,863 +1719,872 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="187" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2584,22 +2593,13 @@
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2703,8 +2703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1233170" y="608330"/>
-          <a:ext cx="1257300" cy="916940"/>
+          <a:off x="1290320" y="617855"/>
+          <a:ext cx="1371600" cy="935990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2830,8 +2830,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2490470" y="1066800"/>
-          <a:ext cx="2538730" cy="1202690"/>
+          <a:off x="2661920" y="1085850"/>
+          <a:ext cx="2824480" cy="1228090"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2877,8 +2877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="1901190"/>
-          <a:ext cx="1113790" cy="757555"/>
+          <a:off x="5486400" y="1936115"/>
+          <a:ext cx="1170940" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -2932,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1218565" y="1674495"/>
-          <a:ext cx="1257300" cy="538480"/>
+          <a:off x="1275715" y="1706245"/>
+          <a:ext cx="1371600" cy="548005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3007,8 +3007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="2386330"/>
-          <a:ext cx="1257300" cy="945515"/>
+          <a:off x="1371600" y="2433955"/>
+          <a:ext cx="1371600" cy="961390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3182,8 +3182,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2475865" y="1933575"/>
-          <a:ext cx="2553335" cy="335915"/>
+          <a:off x="2647315" y="1971675"/>
+          <a:ext cx="2839085" cy="342265"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3232,8 +3232,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2514600" y="2269490"/>
-          <a:ext cx="2514600" cy="588010"/>
+          <a:off x="2743200" y="2313940"/>
+          <a:ext cx="2743200" cy="597535"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3279,8 +3279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="3488055"/>
-          <a:ext cx="1257300" cy="634365"/>
+          <a:off x="1371600" y="3554730"/>
+          <a:ext cx="1371600" cy="647065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,8 +3365,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2514600" y="2268855"/>
-          <a:ext cx="2514600" cy="1536700"/>
+          <a:off x="2743200" y="2313305"/>
+          <a:ext cx="2743200" cy="1565275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3412,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3980815" y="2009140"/>
-          <a:ext cx="777875" cy="213360"/>
+          <a:off x="4323715" y="2047240"/>
+          <a:ext cx="835025" cy="216535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3479,8 +3479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7430135" y="2113280"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="8058785" y="2154555"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3537,8 +3537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6142990" y="2269490"/>
-          <a:ext cx="1287145" cy="3810"/>
+          <a:off x="6657340" y="2313940"/>
+          <a:ext cx="1401445" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3586,8 +3586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6398260" y="2016760"/>
-          <a:ext cx="777875" cy="205740"/>
+          <a:off x="6969760" y="2054860"/>
+          <a:ext cx="835025" cy="208915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3653,8 +3653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7445375" y="2567305"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="8074025" y="2618105"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3711,8 +3711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6142990" y="2269490"/>
-          <a:ext cx="1302385" cy="457835"/>
+          <a:off x="6657340" y="2313940"/>
+          <a:ext cx="1416685" cy="467360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3760,8 +3760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="3028315"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="8096250" y="3088640"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,8 +3818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6142990" y="2269490"/>
-          <a:ext cx="1324610" cy="918845"/>
+          <a:off x="6657340" y="2313940"/>
+          <a:ext cx="1438910" cy="937895"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3867,8 +3867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9967595" y="1901190"/>
-          <a:ext cx="1130300" cy="757555"/>
+          <a:off x="10824845" y="1936115"/>
+          <a:ext cx="1244600" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -3925,8 +3925,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8687435" y="2269490"/>
-          <a:ext cx="1280160" cy="3810"/>
+          <a:off x="9430385" y="2313940"/>
+          <a:ext cx="1394460" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3974,8 +3974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9018905" y="2027555"/>
-          <a:ext cx="777875" cy="195580"/>
+          <a:off x="9819005" y="2065655"/>
+          <a:ext cx="835025" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4044,8 +4044,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11097895" y="2270760"/>
-          <a:ext cx="1316355" cy="0"/>
+          <a:off x="12069445" y="2315210"/>
+          <a:ext cx="1430655" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4093,8 +4093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11355070" y="2007870"/>
-          <a:ext cx="777875" cy="214630"/>
+          <a:off x="12383770" y="2045970"/>
+          <a:ext cx="835025" cy="217805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4160,8 +4160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12414250" y="2110740"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="13500100" y="2152015"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4215,8 +4215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12428855" y="2564765"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="13514705" y="2615565"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4270,8 +4270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12451715" y="3025775"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="13537565" y="3086100"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4328,8 +4328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11097895" y="2270760"/>
-          <a:ext cx="1330960" cy="454025"/>
+          <a:off x="12069445" y="2315210"/>
+          <a:ext cx="1445260" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4380,8 +4380,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11097895" y="2270760"/>
-          <a:ext cx="1353820" cy="915035"/>
+          <a:off x="12069445" y="2315210"/>
+          <a:ext cx="1468120" cy="934085"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4429,8 +4429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14942185" y="1900555"/>
-          <a:ext cx="1130300" cy="757555"/>
+          <a:off x="16256635" y="1935480"/>
+          <a:ext cx="1244600" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -4487,8 +4487,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13671550" y="2270760"/>
-          <a:ext cx="1270635" cy="0"/>
+          <a:off x="14871700" y="2315210"/>
+          <a:ext cx="1384935" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4536,8 +4536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13993495" y="2036445"/>
-          <a:ext cx="778510" cy="195580"/>
+          <a:off x="15250795" y="2074545"/>
+          <a:ext cx="835660" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,8 +4605,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16063595" y="2279650"/>
-          <a:ext cx="1316355" cy="0"/>
+          <a:off x="17492345" y="2324100"/>
+          <a:ext cx="1430655" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4654,8 +4654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16299815" y="2016760"/>
-          <a:ext cx="798830" cy="205740"/>
+          <a:off x="17728565" y="2054860"/>
+          <a:ext cx="913130" cy="208915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4721,8 +4721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17379950" y="2119630"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="18923000" y="2160905"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4776,8 +4776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17394555" y="2573655"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="18937605" y="2624455"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4831,8 +4831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17417415" y="3034665"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="18960465" y="3094990"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4888,8 +4888,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16063595" y="2279650"/>
-          <a:ext cx="1330960" cy="454025"/>
+          <a:off x="17492345" y="2324100"/>
+          <a:ext cx="1445260" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4940,8 +4940,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268220"/>
-          <a:ext cx="1344930" cy="926465"/>
+          <a:off x="17501235" y="2312670"/>
+          <a:ext cx="1459230" cy="945515"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4989,8 +4989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17412970" y="3492500"/>
-          <a:ext cx="1257300" cy="317500"/>
+          <a:off x="18956020" y="3559175"/>
+          <a:ext cx="1371600" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5044,8 +5044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17435195" y="3955415"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="18978245" y="4031615"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5099,8 +5099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17440275" y="4401820"/>
-          <a:ext cx="1257300" cy="313055"/>
+          <a:off x="18983325" y="4487545"/>
+          <a:ext cx="1371600" cy="319405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5154,8 +5154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17499965" y="5309235"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="19043015" y="5414010"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5209,8 +5209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17480915" y="4847590"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="19023965" y="4942840"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5267,8 +5267,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4966970" y="1024890"/>
-          <a:ext cx="1155700" cy="596265"/>
+          <a:off x="5441950" y="1019810"/>
+          <a:ext cx="1177925" cy="654050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5314,8 +5314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="1270000"/>
-          <a:ext cx="778510" cy="203200"/>
+          <a:off x="5734050" y="1292225"/>
+          <a:ext cx="835660" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5381,8 +5381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5828030" y="131445"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="6342380" y="131445"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5436,8 +5436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5843270" y="585470"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="6357620" y="594995"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5494,8 +5494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4732655" y="805180"/>
-          <a:ext cx="1609725" cy="581660"/>
+          <a:off x="5202555" y="795655"/>
+          <a:ext cx="1641475" cy="638810"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5524,32 +5524,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>530412</xdr:colOff>
+      <xdr:colOff>529590</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28759</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22944</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119034</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="119" name="肘形连接符 118"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="3"/>
-          <a:endCxn id="135" idx="0"/>
+          <a:endCxn id="135" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8702675" y="2727325"/>
-          <a:ext cx="121285" cy="2630170"/>
+          <a:off x="9444990" y="2781300"/>
+          <a:ext cx="13263245" cy="1973580"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 662454"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5596,8 +5596,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8083550" y="3188335"/>
-          <a:ext cx="641350" cy="1256665"/>
+          <a:off x="8769350" y="3251835"/>
+          <a:ext cx="698500" cy="1278890"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5627,16 +5627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145142</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46235</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22944</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>10404</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>640437</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5645,8 +5645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7688580" y="4966970"/>
-          <a:ext cx="1135380" cy="758190"/>
+          <a:off x="22708235" y="4365625"/>
+          <a:ext cx="1249045" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -5700,8 +5700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8592820" y="4601845"/>
-          <a:ext cx="777875" cy="196215"/>
+          <a:off x="9335770" y="4690745"/>
+          <a:ext cx="835025" cy="202565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5770,8 +5770,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9925050" y="1017270"/>
-          <a:ext cx="1165225" cy="602615"/>
+          <a:off x="10856595" y="1012190"/>
+          <a:ext cx="1187450" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5817,8 +5817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10242550" y="1268095"/>
-          <a:ext cx="778510" cy="196215"/>
+          <a:off x="11156950" y="1290320"/>
+          <a:ext cx="835660" cy="202565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,8 +5884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10793730" y="122555"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="11765280" y="122555"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5939,8 +5939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10808970" y="575945"/>
-          <a:ext cx="1257300" cy="320040"/>
+          <a:off x="11780520" y="585470"/>
+          <a:ext cx="1371600" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5997,8 +5997,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="9690735" y="797560"/>
-          <a:ext cx="1618615" cy="588010"/>
+          <a:off x="10617835" y="788035"/>
+          <a:ext cx="1650365" cy="645160"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6044,8 +6044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4907915" y="4286250"/>
-          <a:ext cx="1257300" cy="317500"/>
+          <a:off x="5307965" y="4368800"/>
+          <a:ext cx="1371600" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6099,8 +6099,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6969125" y="4069080"/>
-          <a:ext cx="1114425" cy="758190"/>
+          <a:off x="7597775" y="4148455"/>
+          <a:ext cx="1171575" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -6157,8 +6157,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6165215" y="4445000"/>
-          <a:ext cx="803910" cy="0"/>
+          <a:off x="6679565" y="4530725"/>
+          <a:ext cx="918210" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6189,15 +6189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>507468</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>318770</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9070</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>91818</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6208,9 +6208,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7670165" y="2469515"/>
-          <a:ext cx="1520825" cy="5788025"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="13742670" y="-3170555"/>
+          <a:ext cx="1307465" cy="17182465"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6238,16 +6238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9069</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19020</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494656</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>653227</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119410</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6256,8 +6256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11324590" y="5733415"/>
-          <a:ext cx="1113790" cy="775335"/>
+          <a:off x="22799040" y="5647055"/>
+          <a:ext cx="1170940" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -6313,8 +6313,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4730750" y="3470910"/>
-          <a:ext cx="1621155" cy="9525"/>
+          <a:off x="5172075" y="3537585"/>
+          <a:ext cx="1652905" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6362,8 +6362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4563745" y="3179445"/>
-          <a:ext cx="778510" cy="544195"/>
+          <a:off x="4963795" y="3242945"/>
+          <a:ext cx="835660" cy="553720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6445,8 +6445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15217775" y="1270000"/>
-          <a:ext cx="777875" cy="203200"/>
+          <a:off x="16589375" y="1292225"/>
+          <a:ext cx="835025" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6512,8 +6512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15768955" y="131445"/>
-          <a:ext cx="1257300" cy="319405"/>
+          <a:off x="17197705" y="131445"/>
+          <a:ext cx="1371600" cy="325755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6570,8 +6570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="14667230" y="798830"/>
-          <a:ext cx="1609090" cy="593725"/>
+          <a:off x="16051530" y="789305"/>
+          <a:ext cx="1640840" cy="650875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6620,8 +6620,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="11407775" y="-2823210"/>
-          <a:ext cx="1151255" cy="12115800"/>
+          <a:off x="12454255" y="-3303905"/>
+          <a:ext cx="1172845" cy="13201015"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6672,8 +6672,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15854680" y="1900555"/>
-          <a:ext cx="2797175" cy="833120"/>
+          <a:off x="17283430" y="1935480"/>
+          <a:ext cx="3025775" cy="852170"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -6725,8 +6725,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15854680" y="1900555"/>
-          <a:ext cx="2820035" cy="1294130"/>
+          <a:off x="17283430" y="1935480"/>
+          <a:ext cx="3048635" cy="1322705"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -6775,8 +6775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18063210" y="1523365"/>
-          <a:ext cx="798830" cy="218440"/>
+          <a:off x="19663410" y="1551940"/>
+          <a:ext cx="913130" cy="221615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6824,16 +6824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494656</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>466090</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>73050</xdr:rowOff>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>91820</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6844,12 +6844,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="15036165" y="3031490"/>
-          <a:ext cx="494665" cy="5690235"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="21703030" y="3707130"/>
+          <a:ext cx="294640" cy="4363720"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 311497"/>
+            <a:gd name="adj2" fmla="val 105633"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6895,8 +6898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268220"/>
-          <a:ext cx="1340485" cy="1383030"/>
+          <a:off x="17501235" y="2312670"/>
+          <a:ext cx="1454785" cy="1408430"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6947,8 +6950,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268855"/>
-          <a:ext cx="1362710" cy="1846580"/>
+          <a:off x="17501235" y="2313305"/>
+          <a:ext cx="1477010" cy="1881505"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6999,8 +7002,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268855"/>
-          <a:ext cx="1367790" cy="2289175"/>
+          <a:off x="17501235" y="2313305"/>
+          <a:ext cx="1482090" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7051,8 +7054,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268855"/>
-          <a:ext cx="1408430" cy="2738120"/>
+          <a:off x="17501235" y="2313305"/>
+          <a:ext cx="1522730" cy="2792095"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7103,8 +7106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16072485" y="2268855"/>
-          <a:ext cx="1427480" cy="3200400"/>
+          <a:off x="17501235" y="2313305"/>
+          <a:ext cx="1541780" cy="3263900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7134,16 +7137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>260595</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>135890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>138397</xdr:colOff>
+      <xdr:colOff>609322</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>125857</xdr:rowOff>
+      <xdr:rowOff>102997</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7152,8 +7155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20377150" y="1905000"/>
-          <a:ext cx="1134745" cy="760730"/>
+          <a:off x="22677120" y="1917065"/>
+          <a:ext cx="1249045" cy="776605"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -7190,15 +7193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>406614</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>57182</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>260595</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>57521</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7210,8 +7213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18637250" y="2279650"/>
-          <a:ext cx="1739900" cy="0"/>
+          <a:off x="20294600" y="2308225"/>
+          <a:ext cx="2382520" cy="15875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7264,8 +7267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5636895" y="2249170"/>
-          <a:ext cx="1139190" cy="739775"/>
+          <a:off x="6094095" y="2293620"/>
+          <a:ext cx="1253490" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -7319,8 +7322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2578100" y="1464945"/>
-          <a:ext cx="1264920" cy="598805"/>
+          <a:off x="2806700" y="1493520"/>
+          <a:ext cx="1379220" cy="608330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7398,8 +7401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2559685" y="2947670"/>
-          <a:ext cx="1265555" cy="626110"/>
+          <a:off x="2788285" y="3004820"/>
+          <a:ext cx="1379855" cy="638810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7476,8 +7479,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3843020" y="1755140"/>
-          <a:ext cx="1793875" cy="864235"/>
+          <a:off x="4185920" y="1790065"/>
+          <a:ext cx="1908175" cy="880110"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7526,8 +7529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3825240" y="2619375"/>
-          <a:ext cx="1811655" cy="641350"/>
+          <a:off x="4168140" y="2670175"/>
+          <a:ext cx="1925955" cy="654050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7573,8 +7576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4774565" y="2381250"/>
-          <a:ext cx="782320" cy="197485"/>
+          <a:off x="5174615" y="2425700"/>
+          <a:ext cx="839470" cy="203835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7643,8 +7646,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5554980" y="1454150"/>
-          <a:ext cx="1104900" cy="485775"/>
+          <a:off x="6087110" y="1459230"/>
+          <a:ext cx="1127125" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7690,8 +7693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5784850" y="1889760"/>
-          <a:ext cx="777240" cy="181610"/>
+          <a:off x="6299200" y="1924685"/>
+          <a:ext cx="834390" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7757,8 +7760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6335395" y="555625"/>
-          <a:ext cx="1256030" cy="307340"/>
+          <a:off x="6906895" y="565150"/>
+          <a:ext cx="1370330" cy="313690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7812,8 +7815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350635" y="990600"/>
-          <a:ext cx="1255395" cy="307975"/>
+          <a:off x="6922135" y="1009650"/>
+          <a:ext cx="1369695" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7870,8 +7873,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5330190" y="1243965"/>
-          <a:ext cx="1539875" cy="470535"/>
+          <a:off x="5857240" y="1243965"/>
+          <a:ext cx="1571625" cy="527685"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7920,8 +7923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5768340" y="1667510"/>
-          <a:ext cx="678815" cy="485140"/>
+          <a:off x="6303645" y="1675765"/>
+          <a:ext cx="694055" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7967,8 +7970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350635" y="1417320"/>
-          <a:ext cx="1255395" cy="307340"/>
+          <a:off x="6922135" y="1442720"/>
+          <a:ext cx="1369695" cy="313690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8022,8 +8025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6941820" y="2381250"/>
-          <a:ext cx="783590" cy="194310"/>
+          <a:off x="7570470" y="2425700"/>
+          <a:ext cx="840740" cy="200660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8092,8 +8095,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1473835" cy="19050"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1645285" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8141,8 +8144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8249920" y="2480945"/>
-          <a:ext cx="1266825" cy="314960"/>
+          <a:off x="8992870" y="2528570"/>
+          <a:ext cx="1381125" cy="321310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8196,8 +8199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8292465" y="3492500"/>
-          <a:ext cx="1266825" cy="317500"/>
+          <a:off x="9035415" y="3559175"/>
+          <a:ext cx="1381125" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8251,8 +8254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8314690" y="3959225"/>
-          <a:ext cx="1266825" cy="315595"/>
+          <a:off x="9057640" y="4035425"/>
+          <a:ext cx="1381125" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8309,8 +8312,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1516380" cy="1031875"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1687830" cy="1050925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8361,8 +8364,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1538605" cy="1497330"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1710055" cy="1525905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8410,8 +8413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8301355" y="5307965"/>
-          <a:ext cx="1266825" cy="309245"/>
+          <a:off x="9044305" y="5412740"/>
+          <a:ext cx="1381125" cy="315595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8465,8 +8468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8287385" y="4406265"/>
-          <a:ext cx="1266825" cy="315595"/>
+          <a:off x="9030335" y="4491990"/>
+          <a:ext cx="1381125" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8534,8 +8537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1525270" cy="2842895"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1696720" cy="2900045"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8586,8 +8589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1511300" cy="1945005"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1682750" cy="1983105"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8635,8 +8638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255635" y="2982595"/>
-          <a:ext cx="1267460" cy="315595"/>
+          <a:off x="8998585" y="3039745"/>
+          <a:ext cx="1381760" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8693,8 +8696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1479550" cy="520700"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1651000" cy="530225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8742,8 +8745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8296275" y="4873625"/>
-          <a:ext cx="1266825" cy="315595"/>
+          <a:off x="9039225" y="4968875"/>
+          <a:ext cx="1381125" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8811,8 +8814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776085" y="2619375"/>
-          <a:ext cx="1520190" cy="2412365"/>
+          <a:off x="7347585" y="2670175"/>
+          <a:ext cx="1691640" cy="2459990"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8860,8 +8863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="589280" y="1387475"/>
-          <a:ext cx="1135380" cy="758190"/>
+          <a:off x="589280" y="1412875"/>
+          <a:ext cx="1249680" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -8918,8 +8921,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1724660" y="1755140"/>
-          <a:ext cx="853440" cy="0"/>
+          <a:off x="1838960" y="1790065"/>
+          <a:ext cx="967740" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8949,16 +8952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9068</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494660</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154665</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>325567</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118927</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8967,8 +8970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11324590" y="3977640"/>
-          <a:ext cx="1113790" cy="780415"/>
+          <a:off x="22471380" y="3697605"/>
+          <a:ext cx="1170940" cy="793115"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -9005,15 +9008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>129668</xdr:colOff>
+      <xdr:colOff>128905</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81867</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9025,8 +9028,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9559290" y="3651250"/>
-          <a:ext cx="1765300" cy="716280"/>
+          <a:off x="10415905" y="3720465"/>
+          <a:ext cx="12054840" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9057,15 +9060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152080</xdr:colOff>
+      <xdr:colOff>151130</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>148398</xdr:rowOff>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81867</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9076,9 +9079,61 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9581515" y="4116705"/>
-          <a:ext cx="1743075" cy="250825"/>
+        <a:xfrm flipV="1">
+          <a:off x="10438130" y="4096385"/>
+          <a:ext cx="12032615" cy="99695"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50003"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525145</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="肘形连接符 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="72" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10410825" y="4096385"/>
+          <a:ext cx="12059920" cy="556895"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9109,28 +9164,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>124866</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81867</xdr:rowOff>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119583</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525145</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="肘形连接符 78"/>
+        <xdr:cNvPr id="80" name="肘形连接符 79"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
+          <a:stCxn id="60" idx="3"/>
           <a:endCxn id="72" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9554210" y="4367530"/>
-          <a:ext cx="1770380" cy="196850"/>
+          <a:off x="10419715" y="4096385"/>
+          <a:ext cx="12051030" cy="1033780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9160,68 +9215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133937</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81867</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110511</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="肘形连接符 79"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="72" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9563100" y="4367530"/>
-          <a:ext cx="1761490" cy="664210"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18145</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503732</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>136521</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>197297</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125091</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9230,8 +9233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11333480" y="5080000"/>
-          <a:ext cx="1114425" cy="770890"/>
+          <a:off x="22343110" y="5814695"/>
+          <a:ext cx="1170940" cy="786765"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -9266,7 +9269,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（未上线）</a:t>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" altLang="zh-CN" sz="1100"/>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>未上线）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9276,15 +9287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>138739</xdr:colOff>
+      <xdr:colOff>137795</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>63723</xdr:rowOff>
+      <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18145</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>65180</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9295,9 +9306,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9568180" y="5461000"/>
-          <a:ext cx="1765300" cy="1270"/>
+        <a:xfrm>
+          <a:off x="10424795" y="5570855"/>
+          <a:ext cx="11917680" cy="639445"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9327,16 +9338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>50158</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>18597</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>103861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110219</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9345,8 +9356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10859135" y="371475"/>
-          <a:ext cx="1134745" cy="758190"/>
+          <a:off x="21485860" y="1279525"/>
+          <a:ext cx="1249045" cy="773430"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -9383,15 +9394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>87513</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127227</xdr:rowOff>
+      <xdr:colOff>86360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>98772</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9403,12 +9414,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9516745" y="762000"/>
-          <a:ext cx="1342390" cy="1876425"/>
+          <a:off x="10373360" y="1668780"/>
+          <a:ext cx="11112500" cy="1020445"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50003"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9455,8 +9466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9523095" y="2637155"/>
-          <a:ext cx="2282190" cy="502920"/>
+          <a:off x="10380345" y="2687955"/>
+          <a:ext cx="2453640" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9504,8 +9515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11805285" y="2267585"/>
-          <a:ext cx="1139190" cy="739140"/>
+          <a:off x="12833985" y="2312035"/>
+          <a:ext cx="1253490" cy="751840"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -9559,8 +9570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13940790" y="2479040"/>
-          <a:ext cx="1266825" cy="315595"/>
+          <a:off x="15198090" y="2526665"/>
+          <a:ext cx="1381125" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9617,8 +9628,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12944475" y="2637155"/>
-          <a:ext cx="996315" cy="0"/>
+          <a:off x="14087475" y="2687955"/>
+          <a:ext cx="1110615" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9669,8 +9680,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15207615" y="2637155"/>
-          <a:ext cx="916305" cy="0"/>
+          <a:off x="16579215" y="2687955"/>
+          <a:ext cx="973455" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9718,8 +9729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16123920" y="2267585"/>
-          <a:ext cx="1139190" cy="739140"/>
+          <a:off x="17552670" y="2312035"/>
+          <a:ext cx="1253490" cy="751840"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -9773,8 +9784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18166715" y="2479040"/>
-          <a:ext cx="1266825" cy="315595"/>
+          <a:off x="19766915" y="2526665"/>
+          <a:ext cx="1381125" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9831,8 +9842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17263110" y="2637155"/>
-          <a:ext cx="903605" cy="0"/>
+          <a:off x="18806160" y="2687955"/>
+          <a:ext cx="960755" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9862,16 +9873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>50158</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127227</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>574173</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>103505</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>97171</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9882,13 +9893,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11993880" y="762000"/>
-          <a:ext cx="7439660" cy="1875155"/>
+        <a:xfrm flipV="1">
+          <a:off x="21147405" y="1668780"/>
+          <a:ext cx="1587500" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3171"/>
+            <a:gd name="adj1" fmla="val 115066"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9935,8 +9946,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17263110" y="2637155"/>
-          <a:ext cx="921385" cy="457835"/>
+          <a:off x="18806160" y="2687955"/>
+          <a:ext cx="978535" cy="467360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9984,8 +9995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18184495" y="2937510"/>
-          <a:ext cx="1266825" cy="314960"/>
+          <a:off x="19784695" y="2994660"/>
+          <a:ext cx="1381125" cy="321310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10022,15 +10033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>282189</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>131579</xdr:rowOff>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>198444</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10042,12 +10053,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="11453495" y="-1895475"/>
-          <a:ext cx="2090420" cy="11859895"/>
+          <a:off x="12071985" y="-1936115"/>
+          <a:ext cx="2011680" cy="12100560"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -49697"/>
+            <a:gd name="adj1" fmla="val -11875"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10074,15 +10085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:colOff>421005</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>290286</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>357505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37738</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10091,8 +10102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12298045" y="3061335"/>
-          <a:ext cx="1822450" cy="616585"/>
+          <a:off x="13451205" y="1351280"/>
+          <a:ext cx="1993900" cy="629285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10140,16 +10151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>598710</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>480636</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>177201</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>97789</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10158,8 +10169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18200370" y="4349750"/>
-          <a:ext cx="1139190" cy="730250"/>
+          <a:off x="18811875" y="4374515"/>
+          <a:ext cx="1253490" cy="742315"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -10195,16 +10206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>587510</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>673735</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>78015</xdr:rowOff>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>273116</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10215,13 +10226,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="18427065" y="3643630"/>
-          <a:ext cx="1096645" cy="314325"/>
+        <a:xfrm rot="5400000">
+          <a:off x="19664045" y="3540760"/>
+          <a:ext cx="1033145" cy="608965"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 49969"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10270,8 +10281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556000" y="2512060"/>
-          <a:ext cx="1261745" cy="594995"/>
+          <a:off x="3841750" y="2559685"/>
+          <a:ext cx="1376045" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10345,8 +10356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1593850" y="2407285"/>
-          <a:ext cx="1130935" cy="781050"/>
+          <a:off x="1708150" y="2454910"/>
+          <a:ext cx="1245235" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -10403,8 +10414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724785" y="2807335"/>
-          <a:ext cx="831215" cy="1905"/>
+          <a:off x="2953385" y="2861310"/>
+          <a:ext cx="888365" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10452,8 +10463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6421120" y="2423795"/>
-          <a:ext cx="1131570" cy="758190"/>
+          <a:off x="6992620" y="2471420"/>
+          <a:ext cx="1245870" cy="774065"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -10510,8 +10521,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4817745" y="2809240"/>
-          <a:ext cx="1603375" cy="3175"/>
+          <a:off x="5217795" y="2863215"/>
+          <a:ext cx="1774825" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -10557,8 +10568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="2546985"/>
-          <a:ext cx="775970" cy="222250"/>
+          <a:off x="5895975" y="2597785"/>
+          <a:ext cx="833120" cy="225425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10627,8 +10638,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7552690" y="2809875"/>
-          <a:ext cx="1444625" cy="19685"/>
+          <a:off x="8238490" y="2863850"/>
+          <a:ext cx="1558925" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10676,8 +10687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8997315" y="2663190"/>
-          <a:ext cx="1258570" cy="332105"/>
+          <a:off x="9797415" y="2713990"/>
+          <a:ext cx="1372870" cy="338455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10731,8 +10742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039860" y="3721735"/>
-          <a:ext cx="1258570" cy="332105"/>
+          <a:off x="9839960" y="3794760"/>
+          <a:ext cx="1372870" cy="338455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10789,8 +10800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7552690" y="2809875"/>
-          <a:ext cx="1487170" cy="1078230"/>
+          <a:off x="8238490" y="2863850"/>
+          <a:ext cx="1601470" cy="1100455"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10838,8 +10849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9003030" y="3175635"/>
-          <a:ext cx="1259205" cy="332105"/>
+          <a:off x="9803130" y="3239135"/>
+          <a:ext cx="1373505" cy="338455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10896,8 +10907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7552690" y="2809875"/>
-          <a:ext cx="1450340" cy="531495"/>
+          <a:off x="8238490" y="2863850"/>
+          <a:ext cx="1564640" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10948,8 +10959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6304915" y="1615440"/>
-          <a:ext cx="1132840" cy="484505"/>
+          <a:off x="6894195" y="1623060"/>
+          <a:ext cx="1154430" cy="542290"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10995,8 +11006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7098665" y="692150"/>
-          <a:ext cx="3121025" cy="300990"/>
+          <a:off x="7727315" y="704850"/>
+          <a:ext cx="3406775" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11050,8 +11061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7113905" y="1129665"/>
-          <a:ext cx="1247775" cy="323850"/>
+          <a:off x="7742555" y="1151890"/>
+          <a:ext cx="1362075" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11108,8 +11119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6073140" y="1398270"/>
-          <a:ext cx="1581150" cy="469900"/>
+          <a:off x="6657340" y="1401445"/>
+          <a:ext cx="1612900" cy="527050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11158,8 +11169,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6526530" y="1836420"/>
-          <a:ext cx="689610" cy="485140"/>
+          <a:off x="7118985" y="1847850"/>
+          <a:ext cx="704850" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11205,8 +11216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7113905" y="1572260"/>
-          <a:ext cx="1247775" cy="323850"/>
+          <a:off x="7742555" y="1600835"/>
+          <a:ext cx="1362075" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11260,8 +11271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6632575" y="2132965"/>
-          <a:ext cx="663575" cy="189230"/>
+          <a:off x="7204075" y="2174240"/>
+          <a:ext cx="720725" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11327,8 +11338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11476990" y="3209290"/>
-          <a:ext cx="1135380" cy="759460"/>
+          <a:off x="12505690" y="3272790"/>
+          <a:ext cx="1249680" cy="772160"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -11385,8 +11396,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10298430" y="3595370"/>
-          <a:ext cx="1178560" cy="292735"/>
+          <a:off x="11212830" y="3665220"/>
+          <a:ext cx="1292860" cy="299085"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11437,8 +11448,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10262235" y="3341370"/>
-          <a:ext cx="1214755" cy="254000"/>
+          <a:off x="11176635" y="3408045"/>
+          <a:ext cx="1329055" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11489,8 +11500,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10255885" y="2124075"/>
-          <a:ext cx="1176655" cy="705485"/>
+          <a:off x="11170285" y="2165350"/>
+          <a:ext cx="1290955" cy="718185"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11538,8 +11549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11432540" y="1740535"/>
-          <a:ext cx="1115060" cy="781050"/>
+          <a:off x="12461240" y="1772285"/>
+          <a:ext cx="1172210" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -11593,8 +11604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7770495" y="2571750"/>
-          <a:ext cx="662940" cy="189230"/>
+          <a:off x="8456295" y="2622550"/>
+          <a:ext cx="720090" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11660,8 +11671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10150475" y="2343785"/>
-          <a:ext cx="663575" cy="189230"/>
+          <a:off x="11064875" y="2388235"/>
+          <a:ext cx="720725" cy="192405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12004,14 +12015,14 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.2727272727273" style="305" customWidth="1"/>
+    <col min="1" max="1" width="12.275" style="305" customWidth="1"/>
     <col min="2" max="2" width="26" style="305" customWidth="1"/>
-    <col min="3" max="3" width="68.6363636363636" style="305" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" style="305" customWidth="1"/>
-    <col min="5" max="5" width="16.9090909090909" style="305" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="305"/>
+    <col min="3" max="3" width="68.6333333333333" style="305" customWidth="1"/>
+    <col min="4" max="4" width="17.3666666666667" style="305" customWidth="1"/>
+    <col min="5" max="5" width="16.9083333333333" style="305" customWidth="1"/>
+    <col min="6" max="16384" width="8.725" style="305"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:5">
@@ -12244,7 +12255,7 @@
       <c r="D18" s="308"/>
       <c r="E18" s="308"/>
     </row>
-    <row r="19" ht="25" spans="1:5">
+    <row r="19" ht="25.5" spans="1:5">
       <c r="A19" s="307"/>
       <c r="B19" s="308" t="s">
         <v>35</v>
@@ -12415,11 +12426,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9:AE38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12432,11 +12443,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AE46" sqref="AE46:AE47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12449,11 +12460,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12466,26 +12477,26 @@
   <sheetPr/>
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.09090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.45454545454546" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.63636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.275" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.45833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.9083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.63333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.2727272727273" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7272727272727" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90909090909091" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.0909090909091" style="1" customWidth="1"/>
-    <col min="13" max="13" width="104.636363636364" style="1" customWidth="1"/>
-    <col min="14" max="14" width="71.0909090909091" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.275" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.725" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.0916666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="104.633333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="71.0916666666667" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14018,7 +14029,7 @@
       </c>
       <c r="M77" s="298"/>
     </row>
-    <row r="78" ht="18.5" spans="1:13">
+    <row r="78" ht="18" spans="1:13">
       <c r="A78" s="260" t="s">
         <v>114</v>
       </c>
@@ -14233,7 +14244,7 @@
       </c>
       <c r="M87" s="301"/>
     </row>
-    <row r="88" ht="13" spans="1:13">
+    <row r="88" spans="1:13">
       <c r="A88" s="281"/>
       <c r="B88" s="282"/>
       <c r="C88" s="282"/>
@@ -14248,7 +14259,7 @@
       <c r="L88" s="282"/>
       <c r="M88" s="302"/>
     </row>
-    <row r="95" ht="13" spans="3:13">
+    <row r="95" spans="3:13">
       <c r="C95" s="283"/>
       <c r="D95" s="284"/>
       <c r="E95" s="290"/>
@@ -14287,7 +14298,7 @@
       <c r="L97" s="254"/>
       <c r="M97" s="110"/>
     </row>
-    <row r="98" ht="13" spans="3:13">
+    <row r="98" spans="3:13">
       <c r="C98" s="281"/>
       <c r="D98" s="285"/>
       <c r="E98" s="292"/>
@@ -14364,38 +14375,38 @@
   <sheetPr/>
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B62" sqref="B62:Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.8181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90909090909091" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.545454545454545" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.72727272727273" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.541666666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.725" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.725" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4583333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7272727272727" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.63636363636364" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.63636363636364" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54545454545454" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.0909090909091" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.45454545454545" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.45454545454546" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.45454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.725" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.63333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.63333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.54166666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.0916666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.45833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.3666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.09166666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.45833333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.45833333333333" style="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.3636363636364" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.27272727272727" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.45454545454546" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3666666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3666666666667" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9.275" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.45833333333333" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16752,42 +16763,42 @@
   <sheetPr/>
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A42" sqref="$A42:$XFD47"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.9090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.9083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.72727272727273" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.72727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.72727272727273" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90909090909091" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.2727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.45454545454545" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.725" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.725" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.725" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.275" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.45833333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3666666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90909090909091" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90833333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.45454545454545" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.36363636363636" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.72727272727273" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.63636363636364" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.63636363636364" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.45833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.36666666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.725" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.63333333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.63333333333333" style="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.27272727272727" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90909090909091" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.45454545454546" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.3636363636364" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.4545454545455" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7272727272727" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.275" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.90833333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.45833333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.3666666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.4583333333333" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.725" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -19016,40 +19027,40 @@
   <sheetPr/>
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.0909090909091" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.72727272727273" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.27272727272727" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7272727272727" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5454545454545" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.09090909090909" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.36363636363636" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.63636363636364" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.72727272727273" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.0916666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54166666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.725" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.275" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.725" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.09166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.36666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.63333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.725" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6333333333333" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.09090909090909" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.09166666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.72727272727273" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5454545454545" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.18181818181818" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.36363636363636" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.725" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.275" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5416666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.18333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.36666666666667" style="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="13.1818181818182" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1833333333333" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20541,40 +20552,40 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90909090909091" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.72727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.27272727272727" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.72727272727273" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.27272727272727" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3636363636364" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.725" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54166666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.275" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.725" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.275" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.27272727272727" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.90909090909091" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.36363636363636" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.63636363636364" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5454545454545" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.27272727272727" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.27272727272727" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90909090909091" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.09090909090909" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.72727272727273" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.72727272727273" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.63636363636364" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.36363636363636" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.1818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.275" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.90833333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.36666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.63333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5416666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.275" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.275" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.90833333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.09166666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.09166666666667" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.725" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.725" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.63333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.36666666666667" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8166666666667" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1833333333333" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" spans="1:26">
+    <row r="1" ht="24" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>183</v>
       </c>
@@ -20702,7 +20713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="23" spans="1:28">
+    <row r="4" ht="22.5" spans="1:28">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -20939,7 +20950,7 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" ht="25" spans="1:28">
+    <row r="9" spans="1:28">
       <c r="A9" s="17" t="s">
         <v>100</v>
       </c>
@@ -20970,7 +20981,7 @@
       <c r="Z9" s="38"/>
       <c r="AB9" s="74"/>
     </row>
-    <row r="10" ht="25" spans="1:28">
+    <row r="10" spans="1:28">
       <c r="A10" s="17" t="s">
         <v>101</v>
       </c>
@@ -21001,7 +21012,7 @@
       <c r="Z10" s="38"/>
       <c r="AB10" s="74"/>
     </row>
-    <row r="11" ht="25" spans="1:29">
+    <row r="11" spans="1:29">
       <c r="A11" s="17" t="s">
         <v>184</v>
       </c>
